--- a/data/trans_dic/P9_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P9_1_R-Edad-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,79; 4,87</t>
+          <t>1,79; 4,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,65; 6,53</t>
+          <t>2,32; 6,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,93; 4,0</t>
+          <t>0,94; 3,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,5; 5,79</t>
+          <t>0,48; 6,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,39; 7,33</t>
+          <t>3,49; 7,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,97; 7,03</t>
+          <t>2,8; 7,45</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,86; 5,54</t>
+          <t>1,8; 5,29</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,68; 9,13</t>
+          <t>1,65; 9,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,05; 5,75</t>
+          <t>2,98; 5,58</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,13; 6,0</t>
+          <t>3,13; 5,86</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,68; 3,96</t>
+          <t>1,65; 4,21</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,4; 5,53</t>
+          <t>1,51; 5,35</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,94; 4,55</t>
+          <t>1,92; 4,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,37; 5,16</t>
+          <t>2,16; 5,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,94; 6,47</t>
+          <t>3,09; 6,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,47; 10,86</t>
+          <t>4,58; 10,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,16; 10,54</t>
+          <t>6,27; 10,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,28; 7,07</t>
+          <t>3,32; 7,17</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,22; 8,21</t>
+          <t>4,34; 8,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,25; 7,69</t>
+          <t>3,37; 7,75</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,31; 6,93</t>
+          <t>4,33; 6,82</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,18; 5,45</t>
+          <t>3,12; 5,38</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,96; 6,74</t>
+          <t>4,08; 6,84</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,45; 8,16</t>
+          <t>4,64; 8,35</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,35; 6,9</t>
+          <t>3,32; 6,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,85; 8,92</t>
+          <t>4,79; 8,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,91; 5,9</t>
+          <t>2,9; 6,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,93; 11,18</t>
+          <t>6,07; 11,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,17; 11,57</t>
+          <t>7,13; 11,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,28; 14,58</t>
+          <t>9,53; 14,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,85; 11,38</t>
+          <t>6,82; 11,31</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,48; 13,02</t>
+          <t>8,53; 12,97</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,7; 8,59</t>
+          <t>5,8; 8,78</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,71; 10,86</t>
+          <t>7,64; 10,85</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,29; 8,23</t>
+          <t>5,29; 8,07</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,87; 11,34</t>
+          <t>7,87; 11,37</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,24; 9,72</t>
+          <t>5,22; 9,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,77; 11,48</t>
+          <t>6,68; 11,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,24; 13,1</t>
+          <t>7,97; 13,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,25; 15,72</t>
+          <t>9,4; 15,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,22; 17,37</t>
+          <t>11,25; 17,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,66; 18,95</t>
+          <t>12,5; 18,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,83; 16,24</t>
+          <t>10,8; 16,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,04; 19,58</t>
+          <t>14,14; 19,74</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,83; 12,72</t>
+          <t>8,81; 12,59</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,42; 14,13</t>
+          <t>10,3; 14,36</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,07; 14,01</t>
+          <t>10,13; 13,62</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,5; 16,83</t>
+          <t>12,51; 16,78</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,32; 19,49</t>
+          <t>12,39; 19,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,07; 20,08</t>
+          <t>12,67; 20,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,98; 16,76</t>
+          <t>10,13; 16,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,4; 23,78</t>
+          <t>17,5; 24,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>14,51; 22,0</t>
+          <t>14,68; 22,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>25,1; 33,86</t>
+          <t>24,44; 33,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>20,35; 28,16</t>
+          <t>20,6; 28,67</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>21,9; 27,05</t>
+          <t>21,81; 27,43</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>14,5; 19,53</t>
+          <t>14,31; 19,67</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>20,14; 25,95</t>
+          <t>19,97; 25,92</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>16,31; 21,55</t>
+          <t>16,48; 21,72</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>20,31; 24,87</t>
+          <t>20,39; 24,61</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>22,42; 29,91</t>
+          <t>22,06; 29,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>31,9; 40,0</t>
+          <t>32,11; 40,91</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>23,68; 30,99</t>
+          <t>24,07; 31,05</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>22,49; 28,1</t>
+          <t>23,01; 28,37</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>35,88; 43,41</t>
+          <t>35,88; 43,5</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>47,98; 55,12</t>
+          <t>47,55; 55,16</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>44,02; 51,98</t>
+          <t>44,53; 52,13</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>27,86; 44,24</t>
+          <t>27,28; 44,47</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>30,91; 36,32</t>
+          <t>30,9; 36,48</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>41,81; 47,56</t>
+          <t>41,88; 47,61</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>36,57; 41,91</t>
+          <t>36,61; 42,17</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>26,93; 36,44</t>
+          <t>25,82; 36,26</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,13; 10,14</t>
+          <t>8,12; 10,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,88; 13,36</t>
+          <t>10,91; 13,21</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,42; 11,61</t>
+          <t>9,44; 11,53</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,83; 15,39</t>
+          <t>12,8; 15,51</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>15,08; 17,67</t>
+          <t>15,12; 17,72</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>19,51; 22,31</t>
+          <t>19,57; 22,35</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>17,92; 20,93</t>
+          <t>18,07; 20,73</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>18,37; 21,62</t>
+          <t>18,11; 21,45</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>11,95; 13,55</t>
+          <t>11,95; 13,54</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>15,63; 17,44</t>
+          <t>15,63; 17,43</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>14,07; 15,95</t>
+          <t>14,19; 15,93</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>16,17; 18,33</t>
+          <t>16,23; 18,3</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P9_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P9_1_R-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,79; 4,86</t>
+          <t>1,69; 4,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,32; 6,15</t>
+          <t>2,53; 6,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,94; 3,94</t>
+          <t>0,96; 4,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,49; 7,69</t>
+          <t>3,3; 7,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,8; 7,45</t>
+          <t>3,15; 7,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,8; 5,29</t>
+          <t>1,67; 5,57</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,98; 5,58</t>
+          <t>2,97; 5,57</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,13; 5,86</t>
+          <t>3,15; 5,93</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,65; 4,21</t>
+          <t>1,7; 3,89</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,92; 4,56</t>
+          <t>1,97; 4,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,16; 5,2</t>
+          <t>2,34; 5,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,09; 6,68</t>
+          <t>3,05; 6,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,27; 10,88</t>
+          <t>6,19; 10,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,32; 7,17</t>
+          <t>3,35; 7,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,34; 8,35</t>
+          <t>4,15; 8,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,33; 6,82</t>
+          <t>4,24; 6,9</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,12; 5,38</t>
+          <t>3,11; 5,3</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,08; 6,84</t>
+          <t>4,16; 6,82</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,32; 6,95</t>
+          <t>3,3; 6,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,79; 8,51</t>
+          <t>4,61; 8,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,9; 6,24</t>
+          <t>2,92; 6,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,13; 11,64</t>
+          <t>7,1; 11,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,53; 14,52</t>
+          <t>9,57; 14,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,82; 11,31</t>
+          <t>6,92; 11,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,8; 8,78</t>
+          <t>5,61; 8,56</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,64; 10,85</t>
+          <t>7,66; 10,75</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,29; 8,07</t>
+          <t>5,32; 8,03</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,22; 9,53</t>
+          <t>5,2; 9,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,68; 11,62</t>
+          <t>6,79; 11,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,97; 13,27</t>
+          <t>7,93; 13,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,25; 17,25</t>
+          <t>11,39; 17,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,5; 18,76</t>
+          <t>12,53; 18,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,8; 16,25</t>
+          <t>10,91; 16,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,81; 12,59</t>
+          <t>8,7; 12,5</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,3; 14,36</t>
+          <t>10,52; 14,2</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,13; 13,62</t>
+          <t>9,92; 13,82</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,39; 19,79</t>
+          <t>12,2; 19,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,67; 20,01</t>
+          <t>12,92; 20,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,13; 16,76</t>
+          <t>10,28; 17,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>14,68; 22,76</t>
+          <t>14,78; 22,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>24,44; 33,51</t>
+          <t>24,78; 33,46</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>20,6; 28,67</t>
+          <t>20,67; 28,67</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>14,31; 19,67</t>
+          <t>14,3; 19,73</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>19,97; 25,92</t>
+          <t>19,94; 25,8</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>16,48; 21,72</t>
+          <t>16,61; 21,83</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>22,06; 29,56</t>
+          <t>22,0; 29,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>32,11; 40,91</t>
+          <t>31,49; 40,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>24,07; 31,05</t>
+          <t>23,86; 30,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>35,88; 43,5</t>
+          <t>35,8; 43,72</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>47,55; 55,16</t>
+          <t>47,85; 55,14</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>44,53; 52,13</t>
+          <t>44,43; 52,12</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>30,9; 36,48</t>
+          <t>30,78; 36,31</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>41,88; 47,61</t>
+          <t>41,77; 47,36</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>36,61; 42,17</t>
+          <t>36,53; 42,09</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,12; 10,05</t>
+          <t>8,08; 10,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,91; 13,21</t>
+          <t>10,87; 13,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,44; 11,53</t>
+          <t>9,43; 11,52</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>15,12; 17,72</t>
+          <t>15,14; 17,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>19,57; 22,35</t>
+          <t>19,55; 22,23</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>18,07; 20,73</t>
+          <t>18,06; 20,9</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>11,95; 13,54</t>
+          <t>11,97; 13,6</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>15,63; 17,43</t>
+          <t>15,72; 17,48</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>14,19; 15,93</t>
+          <t>14,28; 16,03</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
